--- a/biology/Botanique/Kathryn_Gustafson/Kathryn_Gustafson.xlsx
+++ b/biology/Botanique/Kathryn_Gustafson/Kathryn_Gustafson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kathryn Gustafson, née en 1951, est une architecte paysagiste américaine. Parmi ses œuvres on compte les Jardins de l'Imaginaire à Terrasson-Lavilledieu et la fontaine commémorative de Diana, princesse de Galles à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kathryn Gustafson nait et grandit à Yakima dans l'État de Washington. Fille de parents chirurgiens, elle entre à dix-huit ans à l'Université de Washington à Seattle pour étudier les arts appliqués. Un an après, elle part à New York pour étudier au Fashion Institute of Technology. Après l'obtention de son diplôme, elle quitte les États-Unis pour s'installer à Paris dans le but de devenir créatrice de mode. Elle sera séduite par la sensibilité française et décidera de s'inscrire à l'École nationale supérieure de paysage de Versailles. Elle commencera ensuite sa carrière d'architecte paysagiste après avoir été diplômée en 1979. Kathryn Gustafson travaille à travers le monde au sein de deux agences, Gustafson Porter + Bowman à Londres et Gustafson Guthrie Nichol à Seattle.
 </t>
@@ -544,11 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inspiration
-Le travail de Kathryn Gustafson se caractérise par la relation qu'elle entretient avec la fluidité des lignes et la simplicité des formes. Elle considère que concevoir un paysage, c'est entrelacer l'environnement physique, la culture, le climat, ainsi que l'histoire du site pour relier le corps à l'âme et l'esprit à la terre. Son travail reflète le modelage de la terre qui donne souplesse et pureté à la forme unissant le végétal à la création du paysage. Elle examine chaque morceau de la terre pour en sortir son histoire. Ses premières questions sont portées sur l'eau, la population, l'histoire et les mythes du site. Une des grandes distinctions du travail de Gustafson est la manière dont elle sculpte, réarrange la terre. La volonté de création d'harmonie, de sérénité et d'équilibre entre les gens et la nature. Un espace hors temps, qui devient calme et paix. On note une forte influence venant de sa vocation première, qui fut le textile, par l'utilisation de ces formes, la souplesse et la légèreté qu'elle leur donne.
-Agences
-Gustafson Porter créé par Kathryn Gustafson et Neil Porter est situé dans le centre de Londres. Cette agence s'oriente plus vers les personnes et l'environnement en privilégiant l’effet de surprise et l’expérience sensorielle.  
-Gustafson Guthrie Nichol a été établie à Seattle et fondée par Kathryn Gustafson, Jennifer Guthrie, Shannon Nichol. Cette agence aspire au raccord entre la nature, la culture et l'histoire.
+          <t>Inspiration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le travail de Kathryn Gustafson se caractérise par la relation qu'elle entretient avec la fluidité des lignes et la simplicité des formes. Elle considère que concevoir un paysage, c'est entrelacer l'environnement physique, la culture, le climat, ainsi que l'histoire du site pour relier le corps à l'âme et l'esprit à la terre. Son travail reflète le modelage de la terre qui donne souplesse et pureté à la forme unissant le végétal à la création du paysage. Elle examine chaque morceau de la terre pour en sortir son histoire. Ses premières questions sont portées sur l'eau, la population, l'histoire et les mythes du site. Une des grandes distinctions du travail de Gustafson est la manière dont elle sculpte, réarrange la terre. La volonté de création d'harmonie, de sérénité et d'équilibre entre les gens et la nature. Un espace hors temps, qui devient calme et paix. On note une forte influence venant de sa vocation première, qui fut le textile, par l'utilisation de ces formes, la souplesse et la légèreté qu'elle leur donne.
 </t>
         </is>
       </c>
@@ -574,10 +590,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Conception</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Agences</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustafson Porter créé par Kathryn Gustafson et Neil Porter est situé dans le centre de Londres. Cette agence s'oriente plus vers les personnes et l'environnement en privilégiant l’effet de surprise et l’expérience sensorielle.  
+Gustafson Guthrie Nichol a été établie à Seattle et fondée par Kathryn Gustafson, Jennifer Guthrie, Shannon Nichol. Cette agence aspire au raccord entre la nature, la culture et l'histoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kathryn_Gustafson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kathryn_Gustafson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Projets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Jardins de l'Imaginaire, Terrasson-Lavilledieu, 1996, 6 ha, équipe de conception Kathryn Gustafson
 Parc de la Villette, Serre de la Cité des sciences et de l'industrie, Paris, 1986, 1 920 m2, Design de Kathryn Gustafson et Ian ritchie
@@ -586,7 +642,7 @@
 Jardin du siège de Esso, Rueil-Malmaison, 1991, conception Kathryn Gustafson
 Place des droits de l'Homme, Évry, 1991, 1,2 ha, conception Kathryn Gustafson
 Jardin l'Oreal, Aulnay-sous-Bois, 1992, 1,5 ha, conception Kathryn Gustafson
-Les 13 sentinelles, treize piliers en gabion à l'échangeur autoroutier A7-A55 aux Pennes-Mirabeau[1].
+Les 13 sentinelles, treize piliers en gabion à l'échangeur autoroutier A7-A55 aux Pennes-Mirabeau.
 Cuirrasse entrée de tunnel banlieue Parisienne, 1993, 6 ha, Non exécuté, conception Kathryn Gustafson
 Jardin du vent et du son, Lausanne, 1997, Suisse, conception Kathryn Gustafson
 Arthur Ross Terrace du Musée américain d'histoire naturelle, New York, 2000, 4 380 m2, conception Kathryn Gustafson
@@ -599,31 +655,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kathryn_Gustafson</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Kathryn_Gustafson</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Héritage national du XXe siècle 2007
 Qualifiée aux finales des récompenses nationales de conception de Hewitt de tonnelier pour la conception de paysage 2005
